--- a/DIAGRAMAS/FICHAS_CLUB_NATIVOSX.xlsx
+++ b/DIAGRAMAS/FICHAS_CLUB_NATIVOSX.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ADSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Github\Club-Nativos\FICHAS_TECNICAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C08CA1A-B4E1-446B-B441-9CB1870957D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A604FA-E37E-4A3E-9EC5-A59A012BA8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -644,9 +645,6 @@
     </r>
   </si>
   <si>
-    <t>Depende de:HU23</t>
-  </si>
-  <si>
     <t>En las tablas existirán botones que me permitirán eliminar, consultar registros y cambiar el estado de pago (de "no pago" a "pago") para cada uno de los registros . ELIMINAR: al hacer clic en el boton se eliminara un registro de pago o compra de la base de datos y se lanza un mensaje . CONSULTAR: al completar la barra de busqueda con el documento del comprador y hacer clic en el boton consultar, el sistema traera el registro de la compra o pago, si no existe un registro relacionado al documento se lanzara una alerta. CAMBIAR ESTADO DE PAGO: al hacer clic en el boton cambiar estado de pago se desplegara las opciones "no pago" y "pago", al hacer clic en cualquiera de estas el registro sera actualizado en la base de datos.</t>
   </si>
   <si>
@@ -1118,13 +1116,16 @@
   </si>
   <si>
     <t>en la interfaz de inicio de sesion existira un link llamado "olvido su contraseña?", al dar clic en este link sere redirigido a un formulario que pedira mi correo, al dar clic al boton reestablecer contraseña, el sistema consultara el correo en la BD y a mi correo registrado me llegara un correo con un link temporal donde podre establecer una nueva contraseña.</t>
+  </si>
+  <si>
+    <t>Depende de:HU13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1164,6 +1165,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1310,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1318,17 +1333,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1399,9 +1430,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1441,18 +1469,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,59 +1488,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400325</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>127906</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>2680607</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>1401535</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9993361" y="699406"/>
-          <a:ext cx="3804282" cy="3559629"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1552,7 +1515,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1605,7 +1568,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1658,7 +1621,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1686,16 +1649,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>153867</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>35938</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>25514</xdr:rowOff>
+      <xdr:rowOff>98086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2231571</xdr:colOff>
+      <xdr:colOff>3637642</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>1140443</xdr:rowOff>
+      <xdr:rowOff>1213015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1711,15 +1674,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9012117" y="12190300"/>
-          <a:ext cx="3601704" cy="3400929"/>
+          <a:off x="11420581" y="13850372"/>
+          <a:ext cx="3601704" cy="3292072"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,16 +1693,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176866</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>739295</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>39774</xdr:rowOff>
+      <xdr:rowOff>121417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2762250</xdr:colOff>
+      <xdr:colOff>4086679</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>1436649</xdr:rowOff>
+      <xdr:rowOff>1518292</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1755,15 +1718,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9769902" y="16912631"/>
-          <a:ext cx="4109384" cy="3301875"/>
+          <a:off x="11361938" y="18427560"/>
+          <a:ext cx="4109384" cy="3220232"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1774,16 +1737,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404134</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449491</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>63848</xdr:rowOff>
+      <xdr:rowOff>18491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2612571</xdr:colOff>
+      <xdr:colOff>3419928</xdr:colOff>
       <xdr:row>115</xdr:row>
-      <xdr:rowOff>1389970</xdr:rowOff>
+      <xdr:rowOff>1344613</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1799,7 +1762,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1807,8 +1770,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9997170" y="23563384"/>
-          <a:ext cx="3732437" cy="3612122"/>
+          <a:off x="11072134" y="26715705"/>
+          <a:ext cx="3732437" cy="3503265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1852,7 +1815,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1905,7 +1868,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1933,16 +1896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>421165</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>143434</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>221594</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>79933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2490107</xdr:colOff>
+      <xdr:colOff>3814536</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>884464</xdr:rowOff>
+      <xdr:rowOff>1002392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1958,7 +1921,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1966,8 +1929,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10014201" y="21642720"/>
-          <a:ext cx="3592942" cy="3027030"/>
+          <a:off x="11606237" y="23085076"/>
+          <a:ext cx="3592942" cy="2918173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2011,7 +1974,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2040,13 +2003,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
+      <xdr:colOff>163287</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>21413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>2843893</xdr:colOff>
+      <xdr:colOff>1823357</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>775607</xdr:rowOff>
     </xdr:to>
@@ -2064,7 +2027,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2072,8 +2035,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9756322" y="5899699"/>
-          <a:ext cx="4204607" cy="2849694"/>
+          <a:off x="10023930" y="5745484"/>
+          <a:ext cx="3184070" cy="2749909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2117,7 +2080,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2170,7 +2133,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2223,7 +2186,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -2276,7 +2239,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2320,7 +2283,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2359,7 +2322,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2403,7 +2366,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2412,6 +2375,93 @@
         <a:xfrm>
           <a:off x="136071" y="38408429"/>
           <a:ext cx="4263571" cy="2976518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3583215</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1299413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CFED7B-6BE1-436C-A2D7-31F5C7E52A8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:srcRect r="2659"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10350500" y="762000"/>
+          <a:ext cx="4617358" cy="3258842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1823358</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5324928</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>571499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8EAF22-EB00-4986-B471-43277B656B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13208001" y="5996214"/>
+          <a:ext cx="3501570" cy="2295071"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2746,8 +2796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107:G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2755,306 +2805,306 @@
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" customWidth="1"/>
     <col min="7" max="7" width="26.7265625" customWidth="1"/>
-    <col min="11" max="11" width="47.1796875" customWidth="1"/>
+    <col min="11" max="11" width="76.54296875" customWidth="1"/>
     <col min="15" max="15" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="I3" s="18" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="I3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28" t="s">
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="34" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="28" t="s">
+      <c r="G4" s="36"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="O4" s="30"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="36"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="28" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="19" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
     </row>
     <row r="16" spans="1:16" ht="126" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="33"/>
     </row>
     <row r="17" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17" t="s">
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
       <c r="O17" s="3" t="s">
         <v>22</v>
       </c>
@@ -3077,286 +3127,287 @@
     </row>
     <row r="19" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="I20" s="18" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="I20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="18" t="s">
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="28" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="36" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="18" t="s">
+      <c r="G21" s="36"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="36" t="s">
+      <c r="M21" s="24"/>
+      <c r="N21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="45"/>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="18" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="18" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="19" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="24"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="24"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="24"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="24"/>
-    </row>
-    <row r="33" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="27"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="30"/>
+    </row>
+    <row r="33" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I34" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17" t="s">
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
       <c r="O34" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3372,2111 +3423,2114 @@
       <c r="N35" s="2"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="18" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="I37" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="24"/>
+      <c r="N38" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="50"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+    </row>
+    <row r="41" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="I37" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="30"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="18"/>
-      <c r="N38" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="45"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="19" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="21"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="24"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="24"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="24"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="24"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="24"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="24"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="24"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="30"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="30"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="30"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="30"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="30"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="30"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="30"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="24"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="30"/>
     </row>
     <row r="50" spans="1:15" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="27"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="27"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="33"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="I51" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17" t="s">
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
       <c r="O51" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="I54" s="28" t="s">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="I54" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="18" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="29" t="s">
+      <c r="E55" s="34"/>
+      <c r="F55" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="30"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="28" t="s">
+      <c r="G55" s="36"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="M55" s="28"/>
-      <c r="N55" s="29" t="s">
+      <c r="M55" s="34"/>
+      <c r="N55" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="O55" s="30"/>
+      <c r="O55" s="36"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="18" t="s">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="31" t="s">
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="18" t="s">
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="19" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="19" t="s">
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="27"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="21"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="27"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="24"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="30"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="30"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="24"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="30"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="30"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="24"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="30"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="30"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="24"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="30"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="30"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="24"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="30"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="30"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="24"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="30"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="30"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="24"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="24"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="30"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="30"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="24"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="30"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="30"/>
     </row>
     <row r="67" spans="1:15" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="27"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="33"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="33"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17" t="s">
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
       <c r="G68" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I68" s="17" t="s">
+      <c r="I68" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17" t="s">
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
       <c r="O68" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28" t="s">
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="I71" s="28" t="s">
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="I71" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28" t="s">
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="M71" s="34"/>
+      <c r="N71" s="34"/>
+      <c r="O71" s="34"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="34"/>
+      <c r="F72" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="36"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M72" s="34"/>
+      <c r="N72" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" s="30"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M72" s="28"/>
-      <c r="N72" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="O72" s="30"/>
+      <c r="O72" s="36"/>
     </row>
     <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="31" t="s">
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="31" t="s">
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="32" t="s">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="18" t="s">
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
     </row>
     <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="21"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="19" t="s">
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="27"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="21"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="27"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="24"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="23"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="24"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="30"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="29"/>
+      <c r="O76" s="30"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="24"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="24"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="30"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="30"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="24"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="24"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="30"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="29"/>
+      <c r="O78" s="30"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="24"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="24"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="30"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="29"/>
+      <c r="O79" s="30"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="24"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="24"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="30"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="30"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="24"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="24"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="30"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="29"/>
+      <c r="O81" s="30"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="24"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="30"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="29"/>
+      <c r="N82" s="29"/>
+      <c r="O82" s="30"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="24"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="24"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="30"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="29"/>
+      <c r="O83" s="30"/>
     </row>
     <row r="84" spans="1:15" ht="169.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="27"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="26"/>
-      <c r="O84" s="27"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="33"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="33"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17" t="s">
+      <c r="B85" s="23"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
       <c r="G85" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I85" s="17" t="s">
+      <c r="I85" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17" t="s">
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
       <c r="O85" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="I87" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="I87" s="18" t="s">
+      <c r="E88" s="34"/>
+      <c r="F88" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M88" s="34"/>
+      <c r="N88" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="18" t="s">
+      <c r="O88" s="36"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A89" s="23"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90" s="23"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91" s="23"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="27"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="28"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" s="28"/>
-      <c r="F88" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G88" s="30"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M88" s="28"/>
-      <c r="N88" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="O88" s="30"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="21"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="21"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="27"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="24"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="24"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="30"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="29"/>
+      <c r="N92" s="29"/>
+      <c r="O92" s="30"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="24"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="23"/>
-      <c r="N93" s="23"/>
-      <c r="O93" s="24"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="30"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="30"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="24"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="24"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="30"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="30"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="24"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="24"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="30"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="30"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="24"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="24"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="30"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="30"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="24"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
-      <c r="O97" s="24"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="30"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="29"/>
+      <c r="O97" s="30"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="24"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="24"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="30"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="30"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="24"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="24"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="30"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="30"/>
     </row>
     <row r="100" spans="1:15" ht="90.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="27"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="27"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="33"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="31"/>
+      <c r="M100" s="32"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="33"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17" t="s">
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
       <c r="G101" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I101" s="17" t="s">
+      <c r="I101" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17" t="s">
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
       <c r="O101" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="18" t="s">
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="I103" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J103" s="34"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+      <c r="O103" s="34"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A104" s="23"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="34"/>
+      <c r="F104" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="I103" s="18" t="s">
+      <c r="G104" s="36"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M104" s="34"/>
+      <c r="N104" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="O104" s="36"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A105" s="23"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M103" s="28"/>
-      <c r="N103" s="28"/>
-      <c r="O103" s="28"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E104" s="28"/>
-      <c r="F104" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G104" s="30"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M104" s="28"/>
-      <c r="N104" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="O104" s="30"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="24"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="18" t="s">
+      <c r="A106" s="23"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="32" t="s">
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M106" s="32"/>
-      <c r="N106" s="32"/>
-      <c r="O106" s="32"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="21"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="M107" s="20"/>
-      <c r="N107" s="20"/>
-      <c r="O107" s="21"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="27"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="M107" s="26"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="27"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="24"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="22"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="23"/>
-      <c r="O108" s="24"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="30"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="29"/>
+      <c r="O108" s="30"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="24"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="22"/>
-      <c r="M109" s="23"/>
-      <c r="N109" s="23"/>
-      <c r="O109" s="24"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="30"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="29"/>
+      <c r="O109" s="30"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="24"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="23"/>
-      <c r="N110" s="23"/>
-      <c r="O110" s="24"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="30"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="30"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="24"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="23"/>
-      <c r="N111" s="23"/>
-      <c r="O111" s="24"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="30"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="29"/>
+      <c r="O111" s="30"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="24"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="23"/>
-      <c r="N112" s="23"/>
-      <c r="O112" s="24"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="23"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="30"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="29"/>
+      <c r="O112" s="30"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="24"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="23"/>
-      <c r="N113" s="23"/>
-      <c r="O113" s="24"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="30"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="29"/>
+      <c r="O113" s="30"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="24"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="22"/>
-      <c r="M114" s="23"/>
-      <c r="N114" s="23"/>
-      <c r="O114" s="24"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="30"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="29"/>
+      <c r="N114" s="29"/>
+      <c r="O114" s="30"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="24"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="22"/>
-      <c r="M115" s="23"/>
-      <c r="N115" s="23"/>
-      <c r="O115" s="24"/>
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="30"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="29"/>
+      <c r="O115" s="30"/>
     </row>
     <row r="116" spans="1:15" ht="119.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="27"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="26"/>
-      <c r="N116" s="26"/>
-      <c r="O116" s="27"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="23"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="33"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="23"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="31"/>
+      <c r="M116" s="32"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="33"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17" t="s">
+      <c r="B117" s="23"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="23"/>
       <c r="G117" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I117" s="17" t="s">
+      <c r="I117" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17" t="s">
+      <c r="J117" s="23"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
+      <c r="M117" s="23"/>
+      <c r="N117" s="23"/>
       <c r="O117" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="18" t="s">
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="I119" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J119" s="34"/>
+      <c r="K119" s="34"/>
+      <c r="L119" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M119" s="34"/>
+      <c r="N119" s="34"/>
+      <c r="O119" s="34"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A120" s="23"/>
+      <c r="B120" s="23"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="I119" s="18" t="s">
+      <c r="E120" s="34"/>
+      <c r="F120" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G120" s="36"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="J119" s="28"/>
-      <c r="K119" s="28"/>
-      <c r="L119" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="M119" s="28"/>
-      <c r="N119" s="28"/>
-      <c r="O119" s="28"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E120" s="28"/>
-      <c r="F120" s="29" t="s">
+      <c r="M120" s="34"/>
+      <c r="N120" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="O120" s="36"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="G120" s="30"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M120" s="28"/>
-      <c r="N120" s="29" t="s">
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="O120" s="30"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="31" t="s">
+      <c r="M121" s="24"/>
+      <c r="N121" s="24"/>
+      <c r="O121" s="24"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A122" s="23"/>
+      <c r="B122" s="23"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="24"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A123" s="23"/>
+      <c r="B123" s="23"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="31" t="s">
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="27"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="23"/>
+      <c r="L123" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="21"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="M123" s="20"/>
-      <c r="N123" s="20"/>
-      <c r="O123" s="21"/>
+      <c r="M123" s="26"/>
+      <c r="N123" s="26"/>
+      <c r="O123" s="27"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A124" s="17"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="24"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="22"/>
-      <c r="M124" s="23"/>
-      <c r="N124" s="23"/>
-      <c r="O124" s="24"/>
+      <c r="A124" s="23"/>
+      <c r="B124" s="23"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="30"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="28"/>
+      <c r="M124" s="29"/>
+      <c r="N124" s="29"/>
+      <c r="O124" s="30"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A125" s="17"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="24"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="22"/>
-      <c r="M125" s="23"/>
-      <c r="N125" s="23"/>
-      <c r="O125" s="24"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="30"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="28"/>
+      <c r="M125" s="29"/>
+      <c r="N125" s="29"/>
+      <c r="O125" s="30"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A126" s="17"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="23"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="24"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17"/>
-      <c r="K126" s="17"/>
-      <c r="L126" s="22"/>
-      <c r="M126" s="23"/>
-      <c r="N126" s="23"/>
-      <c r="O126" s="24"/>
+      <c r="A126" s="23"/>
+      <c r="B126" s="23"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="30"/>
+      <c r="I126" s="23"/>
+      <c r="J126" s="23"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="28"/>
+      <c r="M126" s="29"/>
+      <c r="N126" s="29"/>
+      <c r="O126" s="30"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="24"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="17"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="22"/>
-      <c r="M127" s="23"/>
-      <c r="N127" s="23"/>
-      <c r="O127" s="24"/>
+      <c r="A127" s="23"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="30"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="28"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
+      <c r="O127" s="30"/>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A128" s="17"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="24"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="22"/>
-      <c r="M128" s="23"/>
-      <c r="N128" s="23"/>
-      <c r="O128" s="24"/>
+      <c r="A128" s="23"/>
+      <c r="B128" s="23"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="28"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="30"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="28"/>
+      <c r="M128" s="29"/>
+      <c r="N128" s="29"/>
+      <c r="O128" s="30"/>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="24"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="17"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="22"/>
-      <c r="M129" s="23"/>
-      <c r="N129" s="23"/>
-      <c r="O129" s="24"/>
+      <c r="A129" s="23"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="28"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="30"/>
+      <c r="I129" s="23"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="28"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="29"/>
+      <c r="O129" s="30"/>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A130" s="17"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="24"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="22"/>
-      <c r="M130" s="23"/>
-      <c r="N130" s="23"/>
-      <c r="O130" s="24"/>
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="30"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="28"/>
+      <c r="M130" s="29"/>
+      <c r="N130" s="29"/>
+      <c r="O130" s="30"/>
     </row>
     <row r="131" spans="1:15" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="24"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="22"/>
-      <c r="M131" s="23"/>
-      <c r="N131" s="23"/>
-      <c r="O131" s="24"/>
+      <c r="A131" s="23"/>
+      <c r="B131" s="23"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="30"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="28"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="29"/>
+      <c r="O131" s="30"/>
     </row>
     <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="27"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="25"/>
-      <c r="M132" s="26"/>
-      <c r="N132" s="26"/>
-      <c r="O132" s="27"/>
+      <c r="A132" s="23"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="33"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="31"/>
+      <c r="M132" s="32"/>
+      <c r="N132" s="32"/>
+      <c r="O132" s="33"/>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17" t="s">
+      <c r="B133" s="23"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="23"/>
       <c r="G133" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I133" s="17" t="s">
+      <c r="I133" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J133" s="17"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="17" t="s">
+      <c r="J133" s="23"/>
+      <c r="K133" s="23"/>
+      <c r="L133" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
+      <c r="M133" s="23"/>
+      <c r="N133" s="23"/>
       <c r="O133" s="3" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H134" s="5"/>
+    </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A135" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="18" t="s">
+      <c r="A135" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="I135" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A136" s="23"/>
+      <c r="B136" s="23"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E136" s="34"/>
+      <c r="F136" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G136" s="36"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c r="L136" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M136" s="7"/>
+      <c r="N136" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O136" s="11"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A137" s="23"/>
+      <c r="B137" s="23"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M137" s="13"/>
+      <c r="N137" s="13"/>
+      <c r="O137" s="13"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A138" s="23"/>
+      <c r="B138" s="23"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="24"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A139" s="23"/>
+      <c r="B139" s="23"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="I135" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="M135" s="46"/>
-      <c r="N135" s="46"/>
-      <c r="O135" s="46"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A136" s="17"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E136" s="28"/>
-      <c r="F136" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G136" s="30"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="M136" s="6"/>
-      <c r="N136" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="O136" s="8"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A137" s="17"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
-      <c r="O137" s="5"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A138" s="17"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="32" t="s">
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="27"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c r="L139" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
-      <c r="O138" s="5"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="21"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="M139" s="9"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="10"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="16"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A140" s="17"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="24"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="11"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
-      <c r="O140" s="13"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="23"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="30"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="18"/>
+      <c r="N140" s="18"/>
+      <c r="O140" s="19"/>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A141" s="17"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="24"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="11"/>
-      <c r="M141" s="12"/>
-      <c r="N141" s="12"/>
-      <c r="O141" s="13"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="23"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="30"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="19"/>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A142" s="17"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="23"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="24"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="11"/>
-      <c r="M142" s="12"/>
-      <c r="N142" s="12"/>
-      <c r="O142" s="13"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="23"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="30"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
+      <c r="O142" s="19"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A143" s="17"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="23"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="24"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="12"/>
-      <c r="N143" s="12"/>
-      <c r="O143" s="13"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="23"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="30"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
+      <c r="O143" s="19"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A144" s="17"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="23"/>
-      <c r="F144" s="23"/>
-      <c r="G144" s="24"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="11"/>
-      <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
-      <c r="O144" s="13"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="23"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="30"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="18"/>
+      <c r="O144" s="19"/>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A145" s="17"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="23"/>
-      <c r="G145" s="24"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="11"/>
-      <c r="M145" s="12"/>
-      <c r="N145" s="12"/>
-      <c r="O145" s="13"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="28"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="30"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="18"/>
+      <c r="N145" s="18"/>
+      <c r="O145" s="19"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A146" s="17"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="23"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="24"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
-      <c r="L146" s="11"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
-      <c r="O146" s="13"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="30"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="18"/>
+      <c r="N146" s="18"/>
+      <c r="O146" s="19"/>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A147" s="17"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="23"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="24"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="7"/>
-      <c r="L147" s="11"/>
-      <c r="M147" s="12"/>
-      <c r="N147" s="12"/>
-      <c r="O147" s="13"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="30"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="18"/>
+      <c r="N147" s="18"/>
+      <c r="O147" s="19"/>
     </row>
     <row r="148" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="17"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="26"/>
-      <c r="F148" s="26"/>
-      <c r="G148" s="27"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="7"/>
-      <c r="L148" s="14"/>
-      <c r="M148" s="15"/>
-      <c r="N148" s="15"/>
-      <c r="O148" s="16"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="23"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="33"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c r="L148" s="20"/>
+      <c r="M148" s="21"/>
+      <c r="N148" s="21"/>
+      <c r="O148" s="22"/>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17" t="s">
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
       <c r="G149" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
-      <c r="K149" s="17"/>
-      <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="17"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="23"/>
+      <c r="K149" s="23"/>
+      <c r="L149" s="23"/>
+      <c r="M149" s="23"/>
+      <c r="N149" s="23"/>
       <c r="O149" s="3"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B151" s="28"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="18" t="s">
+      <c r="E151" s="34"/>
+      <c r="F151" s="34"/>
+      <c r="G151" s="34"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A152" s="23"/>
+      <c r="B152" s="23"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E152" s="34"/>
+      <c r="F152" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="E151" s="28"/>
-      <c r="F151" s="28"/>
-      <c r="G151" s="28"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A152" s="17"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="28" t="s">
+      <c r="G152" s="36"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A153" s="23"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="E152" s="28"/>
-      <c r="F152" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G152" s="30"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="31" t="s">
+      <c r="E153" s="24"/>
+      <c r="F153" s="24"/>
+      <c r="G153" s="24"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A154" s="23"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A155" s="23"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E155" s="20"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="21"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="27"/>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="24"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="30"/>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="23"/>
-      <c r="F157" s="23"/>
-      <c r="G157" s="24"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="30"/>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="23"/>
-      <c r="F158" s="23"/>
-      <c r="G158" s="24"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="30"/>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="23"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="24"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="30"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A160" s="17"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="23"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="24"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="30"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="24"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="29"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="30"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
-      <c r="G162" s="24"/>
+      <c r="A162" s="23"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="29"/>
+      <c r="F162" s="29"/>
+      <c r="G162" s="30"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="17"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="23"/>
-      <c r="F163" s="23"/>
-      <c r="G163" s="24"/>
+      <c r="A163" s="23"/>
+      <c r="B163" s="23"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="30"/>
     </row>
     <row r="164" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="17"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="26"/>
-      <c r="F164" s="26"/>
-      <c r="G164" s="27"/>
+      <c r="A164" s="23"/>
+      <c r="B164" s="23"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="33"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="17" t="s">
+      <c r="A165" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17" t="s">
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
       <c r="G165" s="3" t="s">
         <v>22</v>
       </c>
@@ -5583,6 +5637,8 @@
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="D41:G50"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:O37"/>
     <mergeCell ref="L7:O16"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="L20:O20"/>
@@ -5593,8 +5649,6 @@
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="L24:O33"/>
     <mergeCell ref="L17:N17"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:O37"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="A21:C33"/>
@@ -5675,6 +5729,7 @@
     <mergeCell ref="I149:K149"/>
     <mergeCell ref="L149:N149"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
